--- a/Hitorias de usuario- sprint 1 (3).xlsx
+++ b/Hitorias de usuario- sprint 1 (3).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <r>
       <t/>
@@ -221,17 +221,7 @@
     <t>Baja</t>
   </si>
   <si>
-    <t>Migraciones y semillas reproducibles</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero poder generar migraciones y datos iniciales de forma reproducible, para que cualquier entorno nuevo tenga la misma estructura y valores base.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Sistema de migraciones implementado (Alembic o Prisma Migrate).
-Script para ejecutar migraciones desde cero.
-Semillas iniciales de parametros_fiscales cargadas automáticamente.
-Documentación de cómo ejecutar migraciones y seeds.</t>
+    <t/>
   </si>
 </sst>
 </file>
@@ -239,7 +229,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -252,6 +242,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -410,13 +406,13 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
@@ -434,37 +430,37 @@
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -898,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="52.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="39.75">
       <c r="A6" s="12">
         <v>2</v>
       </c>
@@ -950,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="94.2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="39.75">
       <c r="A8" s="12">
         <v>4</v>
       </c>
@@ -976,30 +972,24 @@
         <v>21</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="117.59999999999998">
-      <c r="A9" s="16">
-        <v>5</v>
-      </c>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="16"/>
       <c r="B9" s="17" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
-      <c r="F9" s="18">
-        <v>4</v>
-      </c>
-      <c r="G9" s="18">
-        <v>1</v>
-      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="19" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="15.75">
